--- a/Running projects/Riazeda/VO/01- variation order for ductings & fans.xlsx
+++ b/Running projects/Riazeda/VO/01- variation order for ductings & fans.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA72DAD7-00A2-4835-82F3-93DA12466B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB377F2-C95A-4396-93B8-FB549597FE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,8 +106,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -256,28 +256,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -287,16 +287,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -306,29 +306,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -340,7 +340,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,6 +353,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,9 +370,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,26 +889,26 @@
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
@@ -921,16 +921,16 @@
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1026,7 +1026,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -1049,7 +1049,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="36" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -1097,15 +1097,15 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="23" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
       <c r="H38" s="22">
         <f>SUM(H32:H37)</f>
         <v>272650</v>
@@ -1120,14 +1120,14 @@
     <row r="41" spans="1:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
     </row>
     <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="32"/>

--- a/Running projects/Riazeda/VO/01- variation order for ductings & fans.xlsx
+++ b/Running projects/Riazeda/VO/01- variation order for ductings & fans.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB377F2-C95A-4396-93B8-FB549597FE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FBA9B1-A9AC-4D04-9DEA-9742CDF2DED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$50</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>S. #</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Material Rate</t>
   </si>
   <si>
-    <t>OPT 25%</t>
-  </si>
-  <si>
     <t>Labour Rate</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Nos</t>
   </si>
   <si>
-    <t>Note:  Please add Your margin on above variation.</t>
-  </si>
-  <si>
     <t>Attn: Mr. Taha Ghaznevi</t>
   </si>
   <si>
@@ -95,10 +89,10 @@
     <t>ii</t>
   </si>
   <si>
-    <t>Diffusers</t>
-  </si>
-  <si>
-    <t>Louvers</t>
+    <t>Diffusers (09 x 09)</t>
+  </si>
+  <si>
+    <t>Louvers (14 x 06)</t>
   </si>
 </sst>
 </file>
@@ -258,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -288,9 +282,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -394,13 +385,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1584325</xdr:colOff>
+      <xdr:colOff>1508125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
+      <xdr:colOff>107950</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -432,7 +423,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1965325" y="0"/>
+          <a:off x="1889125" y="0"/>
           <a:ext cx="2314575" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -803,26 +794,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:N51"/>
+  <dimension ref="A7:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -835,358 +825,339 @@
     <row r="14" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="9">
+    <row r="17" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:11" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="9">
         <v>45248</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="L23">
+      <c r="K23">
         <v>3175000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="L24">
-        <f>L23*1.18</f>
+      <c r="K24">
+        <f>K23*1.18</f>
         <v>3746500</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+    </row>
+    <row r="30" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="G31" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" s="12">
-        <v>532</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13">
-        <f>(C32+D32)*25%</f>
-        <v>133</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="11">
+        <v>450</v>
+      </c>
+      <c r="D32" s="12">
+        <v>80</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="11">
         <v>410</v>
       </c>
-      <c r="H32" s="12">
-        <f>SUM(C32+D32+E32)*G32</f>
-        <v>272650</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="12">
+        <f>SUM(C32+D32)*F32</f>
+        <v>217300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>2</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="13">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="30">
-        <v>14</v>
-      </c>
-      <c r="H33" s="12">
-        <f>SUM(C33+D33+E33)*G33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C33" s="30">
+        <v>9500</v>
+      </c>
+      <c r="D33" s="30">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="29">
+        <v>4</v>
+      </c>
+      <c r="G33" s="12">
+        <f>SUM(C33+D33)*F33</f>
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>3</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12">
+        <f>SUM(C34+D34)*F34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12">
-        <f>SUM(C34+D34+E34)*G34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+      <c r="B35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="13">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="30">
+      <c r="C35" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D35" s="30">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="12">
-        <f t="shared" ref="H35:H37" si="0">SUM(C35+D35+E35)*G35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="F35" s="29">
+        <v>13</v>
+      </c>
+      <c r="G35" s="12">
+        <f>SUM(C35+D35)*F35</f>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="13">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="30">
+      <c r="C36" s="12">
+        <v>2500</v>
+      </c>
+      <c r="D36" s="30">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="29">
         <v>4</v>
       </c>
-      <c r="H36" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="12">
+        <f>SUM(C36+D36)*F36</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>4</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" s="12">
-        <v>0</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="13">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="30">
+        <v>30000</v>
+      </c>
+      <c r="D37" s="30">
+        <v>10000</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="29">
         <v>1</v>
       </c>
-      <c r="H37" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="23" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="G37" s="12">
+        <f>SUM(C37+D37)*F37</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="22" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="22">
-        <f>SUM(H32:H37)</f>
-        <v>272650</v>
-      </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="5"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" ht="9.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-    </row>
-    <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-    </row>
-    <row r="45" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="21">
+        <f>SUM(G32:G37)</f>
+        <v>369300</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="5"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" ht="9.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+    </row>
+    <row r="44" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+    </row>
+    <row r="45" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-    </row>
-    <row r="47" spans="1:14" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+    </row>
+    <row r="47" spans="1:13" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
-      <c r="J48" s="15"/>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J51" s="8"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A43:E43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>
